--- a/data/krb_test.xlsx
+++ b/data/krb_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="920" windowWidth="22920" windowHeight="13440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1740" yWindow="680" windowWidth="22920" windowHeight="13440" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="api_regist" sheetId="1" r:id="rId1"/>
@@ -133,6 +133,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>推送借款信息</t>
+    <rPh sb="0" eb="1">
+      <t>tui song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie kuan xin xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "serviceName":"API_REGIST",
+ "requestNum":"11111111111111111111111111111111",
+ "appId":"ROMA",
+ "requestTime":"20190408132050",
+ "sign":"",
+ "ext":"",
+ "requestData":{
+  "mobile":"18366582857",
+  "password":"123456"
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "serviceName": "API_PERSONAL_REGIST_EXPAND",
  "requestNum": "11111111111111111111111111111111",
@@ -146,64 +175,10 @@
   "idCardNum":"140502198811102244",
   "mobile":"15001284706",
   "callBackUrl":"http://",
-  "notifyBackUrl":"http://"
+  "notifyBackUrl":"http://",
+"plat":"MOBILE"
  }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送借款信息</t>
-    <rPh sb="0" eb="1">
-      <t>tui song</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie kuan xin xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "serviceName":"API_REGIST",
- "requestNum":"11111111111111111111111111111111",
- "appId":"ROMA",
- "requestTime":"20190408132050",
- "sign":"",
- "ext":"",
- "requestData":{
-  "mobile":"18366582857",
-  "password":"123456"
- }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "serviceName": "API_CREATE_ITEM",
- "requestNum": "11111111111111111111111111111111",
- "appId": "ROMA",
- "requestTime": "20190408132050",
- "sign": "",
- "ext": "",
- "requestData": {
-  "amount": 1000.0,
-  "carSeries": "奔驰C级",
-  "customerId": "RM_10083",
-  "estimatedValue": "253700.0",
-  "licenseNum": "苏EDZ928",
-  "rate": 200,
-  "repayType": "A03",
-  "term": 60,
-  "termPeriod": "D",
-  "urlArr": ["http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000340468.jpg", "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000785747.jpg", "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000524834.jpg", "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000959986.jpg", "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000816278.jpg"],
-  "userId": 3720,
-  "vehicleType": "2015款 奔驰C级 C200L 运动型",
-  "vin": "LE4WG4CB9FL015849"
- }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,16 +190,18 @@
  "sign": "",
  "ext": "",
  "requestData": {
-  "amount": 1000000,
+  "amount": 50000,
   "creditCompanyInfo": {
+"province":"北京",
+"firstCreditDate":"",
    "boothNoS": "人民（武汉国际汽车城）2栋1层26-28号",
    "carTradeName": "武汉其他",
-   "creditLine": 1000000,
+   "creditLine": 50000,
    "creditRate": 0.216,
    "currentBussinessScale": "中",
    "dealerName": "武汉华力特汽车服务有限公司",
    "disburseNum": 0,
-   "employeeNum": "6",
+   "employeeNum": "600",
    "isAdjust": 0,
    "isCompany": 1,
    "lendingAmount": 0,
@@ -232,15 +209,15 @@
    "manageAddr": "湖北省武汉市硚口区古田街道",
    "manageCarPreferences": "中高端",
    "manageEvaluation": "稳健型",
-   "manageTime": "2",
-   "priceCycleMeanValue": 100000,
-   "priceCycleMidValue": 150000,
-   "priceMeanValue": 150000,
-   "priceMidValue": 200000,
-   "priceRange": "50000-500000",
+   "manageTime": "20",
+   "priceCycleMeanValue": 10000000,
+   "priceCycleMidValue": 15000000,
+   "priceMeanValue": 15000000,
+   "priceMidValue": 20000000,
+   "priceRange": "5000000-50000000",
    "repayNum": 0,
-   "stallNum": "20",
-   "totalNum": 10
+   "stallNum": "200",
+   "totalNum": 1000000
   },
   "customerId": "RM_10091",
   "personalInfo": {
@@ -259,9 +236,47 @@
    "personalHouse": "自购有贷",
    "realName": "李育松",
    "registeredAddr": "河南省息县白土店乡夏寨村西李口队",
-   "sex": "1"
+   "sex": "0"
   },
   "userType": "PERSONAL"
+ }
+}</t>
+    <rPh sb="234" eb="235">
+      <t>bei jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "serviceName": "API_CREATE_ITEM",
+ "requestNum": "11111111111111111111111111111111",
+ "appId": "ROMA",
+ "requestTime": "20190408132050",
+ "sign": "",
+ "ext": "",
+ "requestData": {
+  "amount": 10000.0,
+  "carSeries": "奔驰C级",
+  "customerId": "RM_10053",
+  "estimatedValue": "253700.0",
+  "licenseNum": "苏EDZ928",
+  "rate": "18",
+  "repayType": "A03",
+  "term": 60,
+  "termPeriod": "D",
+  "urlArr": ["http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000340468.jpg", "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000785747.jpg", "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000524834.jpg", "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000959986.jpg", "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000816278.jpg"],
+  "userId": 3720,
+  "vehicleType": "2015款 奔驰C级 C200L 运动型",
+  "vin": "LE4WG4CB9FL015849",
+  "purpose": "短期周转",
+  "repayingSource": "个人",
+  "guaranteeMeasures": "无",
+  "industryInvolved": "金融",
+  "incomeCondition": "2000000",
+  "liabilitiesCondition": "无",
+  "overdueCondition": "0",
+  "doubleItem": "0",
+  "mainProperties": "1"
  }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,10 +738,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
@@ -1490,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1527,10 +1542,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -1598,7 +1613,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1628,7 +1643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="288" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="304" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1636,10 +1651,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1652,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1682,18 +1697,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="188" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/krb_test.xlsx
+++ b/data/krb_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="680" windowWidth="22920" windowHeight="13440" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1740" yWindow="680" windowWidth="22920" windowHeight="13440" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="api_regist" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="api_query_credit" sheetId="16" r:id="rId3"/>
     <sheet name="api_personal_regist_expand" sheetId="17" r:id="rId4"/>
     <sheet name="api_create_item" sheetId="18" r:id="rId5"/>
+    <sheet name="api_recharge_repay" sheetId="19" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,22 +144,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "serviceName":"API_REGIST",
- "requestNum":"11111111111111111111111111111111",
- "appId":"ROMA",
- "requestTime":"20190408132050",
- "sign":"",
- "ext":"",
- "requestData":{
-  "mobile":"18366582857",
-  "password":"123456"
- }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户充值还款</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chong zhi huan kuan</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,71 +179,6 @@
   </si>
   <si>
     <t>{
- "serviceName": "API_CREDIT",
- "requestNum": "11111111111111111111111111111111",
- "appId": "ROMA",
- "requestTime": "20190408132050",
- "sign": "",
- "ext": "",
- "requestData": {
-  "amount": 50000,
-  "creditCompanyInfo": {
-"province":"北京",
-"firstCreditDate":"",
-   "boothNoS": "人民（武汉国际汽车城）2栋1层26-28号",
-   "carTradeName": "武汉其他",
-   "creditLine": 50000,
-   "creditRate": 0.216,
-   "currentBussinessScale": "中",
-   "dealerName": "武汉华力特汽车服务有限公司",
-   "disburseNum": 0,
-   "employeeNum": "600",
-   "isAdjust": 0,
-   "isCompany": 1,
-   "lendingAmount": 0,
-   "lendingNum": 0,
-   "manageAddr": "湖北省武汉市硚口区古田街道",
-   "manageCarPreferences": "中高端",
-   "manageEvaluation": "稳健型",
-   "manageTime": "20",
-   "priceCycleMeanValue": 10000000,
-   "priceCycleMidValue": 15000000,
-   "priceMeanValue": 15000000,
-   "priceMidValue": 20000000,
-   "priceRange": "5000000-50000000",
-   "repayNum": 0,
-   "stallNum": "200",
-   "totalNum": 1000000
-  },
-  "customerId": "RM_10091",
-  "personalInfo": {
-   "bankNum": "6212260200092699392",
-   "connubialIdCardNum": "411528199207132134",
-   "connubialRealName": "辛恬",
-   "contactIdCardNum": "411528199207132134",
-   "contactMobile": "17600299420",
-   "contactRealName": "辛恬",
-   "contactRelationship": "CHILDREN",
-   "hasChildern": "HAS_CHILD",
-   "idCardNum": "432524198808036572",
-   "liveAddr": "湖北省武汉市江夏区文化路清江鸿景7栋2101",
-   "maritalStatus": "MARRIED",
-   "mobile": "18513082458",
-   "personalHouse": "自购有贷",
-   "realName": "李育松",
-   "registeredAddr": "河南省息县白土店乡夏寨村西李口队",
-   "sex": "0"
-  },
-  "userType": "PERSONAL"
- }
-}</t>
-    <rPh sb="234" eb="235">
-      <t>bei jing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
  "serviceName": "API_CREATE_ITEM",
  "requestNum": "11111111111111111111111111111111",
  "appId": "ROMA",
@@ -255,9 +186,9 @@
  "sign": "",
  "ext": "",
  "requestData": {
-  "amount": 10000.0,
+  "amount": 5000.0,
   "carSeries": "奔驰C级",
-  "customerId": "RM_10053",
+  "customerId": "RM_10547",
   "estimatedValue": "253700.0",
   "licenseNum": "苏EDZ928",
   "rate": "18",
@@ -265,7 +196,7 @@
   "term": 60,
   "termPeriod": "D",
   "urlArr": ["http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000340468.jpg", "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000785747.jpg", "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000524834.jpg", "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000959986.jpg", "http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/BusinessUser-0-IOS-15444241590000816278.jpg"],
-  "userId": 3720,
+  "userId": 10547,
   "vehicleType": "2015款 奔驰C级 C200L 运动型",
   "vin": "LE4WG4CB9FL015849",
   "purpose": "短期周转",
@@ -277,6 +208,117 @@
   "overdueCondition": "0",
   "doubleItem": "0",
   "mainProperties": "1"
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "serviceName": "API_CREDIT",
+ "requestNum": "11111111111111111111111111111111",
+ "appId": "ROMA",
+ "requestTime": "20190408132050",
+ "sign": "",
+ "ext": "",
+ "requestData": {
+  "amount": 450000,
+  "creditCompanyInfo": {
+   "adjustCreditLineType": "额度不变",
+   "adjustCreditRateType": "利率不变",
+   "avgAmt": "120000",
+   "carCompanyNames": "",
+   "carTradeName": "凯莱国际康结二手车市场",
+   "companyName": "南部新区黄家二手车经营部",
+   "companyType": 5,
+   "creditLine": 450000,
+   "creditRate": 0.18,
+   "creditYears": "0.0",
+   "currentBussinessScale": "中",
+   "dealerName": "南部新区黄家二手车经营部",
+   "disburseNum": 0,
+   "employeeNum": "8",
+   "enterpriseOperator": "0",
+   "firstCreditDate": 1555041580482,
+   "incumbencyPosition": "",
+   "isAdjust": 0,
+   "isCompany": 1,
+   "lendingAmount": 0,
+   "lendingNum": 0,
+   "liveStatus": 1,
+   "manageAddr": "贵州省遵义市红花岗区万里路街道凯莱国际四懂22号门面A1-4、A1-5、A1-6、A1-7、A1-8、A1-9、A1-10",
+   "manageCarPreferences": "中低端",
+   "manageEvaluation": "稳健型",
+   "manageTime": 9,
+   "newCreditLine": 450000,
+   "newCreditRate": 0.18,
+   "priceCycleMeanValue": 43.89,
+   "priceCycleMidValue": 35.36,
+   "priceMeanValue": 116575,
+   "priceMidValue": 106299.99999999999,
+   "priceRange": "68000.0至183800.0",
+   "province": 1,
+   "purchaseQuantity": 100,
+   "registerNumber": "320114000155750",
+   "repayNum": 0,
+   "sellCarNum": "",
+   "stallNum": "52",
+   "totalAmt": "12000000.00",
+   "totalNum": 8
+  },
+  "customerId": "RM_4861",
+  "personalInfo": {
+   "bankNum": "6230521190018587077",
+   "connubialIdCardNum": "522121198012105625",
+   "connubialRealName": "刘姝",
+   "contactIdCardNum": "522121198012105625",
+   "contactMobile": "18198313765",
+   "contactRealName": "刘姝",
+   "contactRelationship": "COUPLE",
+   "hasChildern": "1",
+   "idCardNum": "522101198111046012",
+   "liveAddr": "贵州省遵义市红花岗区万里路街道凯莱国际四懂22号门面A1-4、A1-5、A1-6、A1-7、A1-8、A1-9、A1-10",
+   "maritalStatus": "1",
+   "mobile": "18185233765",
+   "personalHouse": "自购无贷",
+   "realName": "黄友伦",
+   "registeredAddr": "贵州省遵义市汇川区高桥镇新桥社区新庄组199号",
+   "sex": 1
+  },
+  "userType": "PERSONAL"
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "serviceName":"API_REGIST",
+ "requestNum":"11111111111111111111111111111111",
+ "appId":"ROMA",
+ "requestTime":"20190408132050",
+ "sign":"",
+ "ext":"",
+ "requestData":{
+  "mobile":"18366582857",
+  "password":"111111"
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "serviceName": "API_RECHARGE_REPAY",
+ "requestNum": "11111111111111111111111111111111",
+ "appId": "ROMA",
+ "requestTime": "20190408132050",
+ "sign": "",
+ "ext": "",
+ "requestData": {
+  "customerId": "RM_10691",
+  "itemId": "",
+  "amount": "5000.97",
+  "callBackUrl": "http://",
+  "notifyBackUrl": "http://",
+  "plat": "WEB"
  }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,7 +734,7 @@
   <dimension ref="A1:K188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,10 +780,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
@@ -1542,10 +1584,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1596,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -1651,7 +1693,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
@@ -1667,7 +1709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1705,10 +1747,65 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="256" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
